--- a/sortAlgorithms/SortAlgorithmsPerfComparision.xlsx
+++ b/sortAlgorithms/SortAlgorithmsPerfComparision.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkchinta/Documents/YOU/mycpp_git/cpp-generic-pgms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkchinta/Documents/YOU/mycpp_git/cpp-generic-pgms/sortAlgorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -376,7 +376,7 @@
               <a:ea typeface="Arial" charset="0"/>
               <a:cs typeface="Arial" charset="0"/>
             </a:rPr>
-            <a:t>Row 7 to 8 - The inpur data is randomly distributed between 0 and N integers.</a:t>
+            <a:t>Row 7 to 8 - The input data is randomly distributed between 0 and N integers.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>

--- a/sortAlgorithms/SortAlgorithmsPerfComparision.xlsx
+++ b/sortAlgorithms/SortAlgorithmsPerfComparision.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="-4520" yWindow="-21540" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>R_1000</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Num Integers/SortAlgorithm (Clicks)</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
   </si>
 </sst>
 </file>
@@ -185,16 +188,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -203,7 +206,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15367000" y="2159000"/>
+          <a:off x="10718800" y="4140200"/>
           <a:ext cx="3886200" cy="2755900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -657,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,13 +676,14 @@
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -702,19 +706,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1000</v>
       </c>
@@ -737,20 +744,23 @@
         <v>43</v>
       </c>
       <c r="H2" s="1">
+        <v>199</v>
+      </c>
+      <c r="I2" s="1">
         <v>4005</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1993</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>5302</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <f>1-(C2/D2)</f>
         <v>0.52173913043478259</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>10000</v>
       </c>
@@ -773,20 +783,23 @@
         <v>657</v>
       </c>
       <c r="H3" s="1">
+        <v>1953</v>
+      </c>
+      <c r="I3" s="1">
         <v>401491</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>190449</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>481161</v>
       </c>
-      <c r="K3" s="11">
-        <f t="shared" ref="K3:K8" si="0">1-(C3/D3)</f>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L8" si="0">1-(C3/D3)</f>
         <v>0.46095717884130982</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>100000</v>
       </c>
@@ -809,20 +822,23 @@
         <v>4925</v>
       </c>
       <c r="H4" s="1">
+        <v>28272</v>
+      </c>
+      <c r="I4" s="1">
         <v>42228706</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>18879482</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>46034800</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <f t="shared" si="0"/>
         <v>0.4189747829681687</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -844,15 +860,18 @@
       <c r="G5" s="1">
         <v>58563</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>315029</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="11">
+      <c r="K5" s="1"/>
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>0.55995270707386169</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -875,20 +894,23 @@
         <v>110</v>
       </c>
       <c r="H6" s="1">
+        <v>264</v>
+      </c>
+      <c r="I6" s="1">
         <v>2834</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1814</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>3558</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>-0.11696626446688008</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -911,20 +933,23 @@
         <v>12031</v>
       </c>
       <c r="H7" s="1">
+        <v>30453</v>
+      </c>
+      <c r="I7" s="1">
         <v>29410929</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>18220527</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>49369413</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>0.62136862491930278</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -946,10 +971,13 @@
       <c r="G8" s="2">
         <v>200555</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>488947</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="11">
+      <c r="K8" s="2"/>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>0.52241669205682884</v>
       </c>
